--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -338,22 +338,19 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Nome Ente</t>
-  </si>
-  <si>
     <t>evento.trascrizioneSeparazione.atto.enteEstero</t>
   </si>
   <si>
-    <t>Provincia Ente</t>
-  </si>
-  <si>
-    <t>Comune Ente</t>
-  </si>
-  <si>
-    <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>indirizzoEnte</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Atto di Matrimonio</t>
@@ -505,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1504,13 +1501,13 @@
         <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>44</v>
@@ -1530,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>46</v>
@@ -1544,13 +1541,13 @@
         <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>48</v>
@@ -1564,16 +1561,16 @@
         <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1584,16 +1581,16 @@
         <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1604,16 +1601,16 @@
         <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1624,16 +1621,16 @@
         <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1641,19 +1638,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1661,19 +1658,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1681,19 +1678,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1701,19 +1698,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1721,19 +1718,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1741,19 +1738,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1761,19 +1758,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1781,19 +1778,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1801,19 +1798,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1821,19 +1818,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1841,19 +1838,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1861,19 +1858,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1881,19 +1878,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1901,19 +1898,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1921,19 +1918,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1941,19 +1938,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1961,19 +1958,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1981,19 +1978,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2001,19 +1998,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2021,19 +2018,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2041,19 +2038,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2061,19 +2058,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2081,19 +2078,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2101,19 +2098,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2121,19 +2118,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2141,19 +2138,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2161,19 +2158,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2181,19 +2178,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2201,19 +2198,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2221,19 +2218,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2241,19 +2238,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2261,19 +2258,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2281,19 +2278,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2301,19 +2298,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2321,19 +2318,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2341,19 +2338,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2361,19 +2358,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2381,19 +2378,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2401,19 +2398,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2421,19 +2418,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2441,19 +2438,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2461,19 +2458,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2481,19 +2478,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2501,19 +2498,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2521,19 +2518,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2541,19 +2538,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2561,19 +2558,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2581,19 +2578,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2601,19 +2598,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2621,19 +2618,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2641,19 +2638,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2661,19 +2658,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2681,19 +2678,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2701,19 +2698,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -2721,19 +2718,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -2741,19 +2738,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -2761,21 +2758,61 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,false}</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -514,6 +523,7 @@
     <col min="4" max="4" width="49.41796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="61.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,125 +545,146 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -675,2145 +706,2469 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Dichiarazione di conformità</t>
+  </si>
+  <si>
+    <t>Certificato di cui all’art.39 del Regolamento (CE) n. 2201/2003</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.5</t>
+  </si>
+  <si>
+    <t>193.14</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Dichiarazione di conformità</t>
-  </si>
-  <si>
-    <t>Certificato di cui all’art.39 del Regolamento (CE) n. 2201/2003</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.5</t>
-  </si>
-  <si>
-    <t>193.14</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -707,2468 +710,2468 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -212,7 +212,7 @@
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>{evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,false}</t>
+    <t>evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,false</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -526,7 +526,7 @@
     <col min="4" max="4" width="49.41796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="61.6484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="60.265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -2055,7 +2055,7 @@
         <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>119</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>evento.trascrizioneSeparazione.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,true</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -1676,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -1699,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
@@ -1722,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
@@ -1745,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
@@ -1768,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
@@ -1791,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
@@ -1814,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
@@ -1822,7 +1825,7 @@
         <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -1831,13 +1834,13 @@
         <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
@@ -1845,7 +1848,7 @@
         <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -1854,30 +1857,30 @@
         <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,16 +2006,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>22</v>
@@ -2026,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,16 +2052,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>25</v>
@@ -2072,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,7 +2144,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>67</v>
@@ -2150,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>68</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -2173,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>70</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -2196,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>72</v>
@@ -2210,7 +2213,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -2219,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>74</v>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>75</v>
@@ -2242,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>76</v>
@@ -2256,7 +2259,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>77</v>
@@ -2265,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>78</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>79</v>
@@ -2288,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>80</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>81</v>
@@ -2311,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>82</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>83</v>
@@ -2334,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>84</v>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>85</v>
@@ -2357,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>86</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>87</v>
@@ -2380,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>88</v>
@@ -2394,7 +2397,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>89</v>
@@ -2403,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>90</v>
@@ -2417,7 +2420,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>91</v>
@@ -2426,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>92</v>
@@ -2440,7 +2443,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
@@ -2449,7 +2452,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>94</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>95</v>
@@ -2472,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>96</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>97</v>
@@ -2495,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>98</v>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>99</v>
@@ -2518,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>100</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>101</v>
@@ -2541,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>102</v>
@@ -2555,7 +2558,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>103</v>
@@ -2564,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>104</v>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>105</v>
@@ -2587,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>106</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>107</v>
@@ -2610,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>108</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>109</v>
@@ -2633,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>110</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>67</v>
@@ -2656,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>68</v>
@@ -2670,7 +2673,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>69</v>
@@ -2679,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>70</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
@@ -2702,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>72</v>
@@ -2716,7 +2719,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>73</v>
@@ -2725,7 +2728,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>74</v>
@@ -2739,7 +2742,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>75</v>
@@ -2748,7 +2751,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>76</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>77</v>
@@ -2771,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>78</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>79</v>
@@ -2794,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>80</v>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>81</v>
@@ -2817,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>82</v>
@@ -2831,7 +2834,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
@@ -2840,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>84</v>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>85</v>
@@ -2863,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>86</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>87</v>
@@ -2886,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>88</v>
@@ -2900,7 +2903,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>89</v>
@@ -2909,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>90</v>
@@ -2923,7 +2926,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>91</v>
@@ -2932,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>92</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>93</v>
@@ -2955,7 +2958,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>94</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>95</v>
@@ -2978,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>96</v>
@@ -2992,7 +2995,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>97</v>
@@ -3001,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>98</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>99</v>
@@ -3024,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>100</v>
@@ -3038,7 +3041,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>101</v>
@@ -3047,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>102</v>
@@ -3061,7 +3064,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>103</v>
@@ -3070,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>104</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>105</v>
@@ -3093,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>106</v>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>107</v>
@@ -3116,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>108</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>109</v>
@@ -3139,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>110</v>
@@ -3153,10 +3156,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3165,7 +3168,7 @@
         <v>32</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,7 +194,7 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -275,6 +275,9 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -422,22 +425,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Marito</t>
@@ -517,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1388,19 +1391,19 @@
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>66</v>
@@ -1411,7 +1414,7 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1420,7 +1423,7 @@
         <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1434,7 +1437,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1443,7 +1446,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1457,7 +1460,7 @@
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1466,7 +1469,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1480,16 +1483,16 @@
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1503,7 +1506,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -1512,10 +1515,10 @@
         <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>66</v>
@@ -1526,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -1535,10 +1538,10 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>66</v>
@@ -1549,7 +1552,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -1558,10 +1561,10 @@
         <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>66</v>
@@ -1572,7 +1575,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -1581,7 +1584,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -1595,19 +1598,19 @@
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>66</v>
@@ -1618,7 +1621,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1627,7 +1630,7 @@
         <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1644,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1650,7 +1653,7 @@
         <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,249 +1664,249 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>133</v>
@@ -2038,10 +2041,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2515,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2860,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2906,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,24 +3159,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,6 +447,30 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -520,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2699,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2953,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2976,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3229,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,24 +3252,208 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -227,6 +227,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -278,13 +284,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1243,7 +1249,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>66</v>
@@ -1280,7 +1286,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>64</v>
@@ -1289,7 +1295,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>66</v>
@@ -1326,7 +1332,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>64</v>
@@ -1358,7 +1364,7 @@
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>66</v>
@@ -1381,7 +1387,7 @@
         <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>66</v>
@@ -1404,7 +1410,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>66</v>
@@ -1415,7 +1421,7 @@
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1424,7 +1430,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -1438,10 +1444,10 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>64</v>
@@ -1450,7 +1456,7 @@
         <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>66</v>
@@ -1533,7 +1539,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
@@ -1565,7 +1571,7 @@
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>66</v>
@@ -1588,7 +1594,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>66</v>
@@ -1611,7 +1617,7 @@
         <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>66</v>
@@ -1648,7 +1654,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>64</v>
@@ -1657,7 +1663,7 @@
         <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>66</v>
@@ -1711,191 +1717,191 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>117</v>
@@ -1904,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>118</v>
@@ -1913,44 +1919,44 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>124</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>125</v>
@@ -1973,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>126</v>
@@ -1987,7 +1993,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>127</v>
@@ -1996,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>128</v>
@@ -2010,7 +2016,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>129</v>
@@ -2019,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>130</v>
@@ -2033,7 +2039,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>131</v>
@@ -2042,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>132</v>
@@ -2056,7 +2062,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>133</v>
@@ -2065,10 +2071,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>139</v>
@@ -2157,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>140</v>
@@ -2171,16 +2177,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>142</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2976,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3022,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3281,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3327,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3350,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,21 +3445,90 @@
         <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1516,7 +1522,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
@@ -1525,7 +1531,7 @@
         <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>66</v>
@@ -1539,7 +1545,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
@@ -1571,7 +1577,7 @@
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>66</v>
@@ -1594,7 +1600,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>66</v>
@@ -1617,7 +1623,7 @@
         <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>66</v>
@@ -1640,7 +1646,7 @@
         <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>66</v>
@@ -1677,7 +1683,7 @@
         <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>64</v>
@@ -1686,7 +1692,7 @@
         <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>66</v>
@@ -1740,191 +1746,191 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>119</v>
@@ -1933,7 +1939,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>120</v>
@@ -1942,44 +1948,44 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>126</v>
@@ -1993,7 +1999,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>127</v>
@@ -2002,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>128</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>129</v>
@@ -2025,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>130</v>
@@ -2039,7 +2045,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>131</v>
@@ -2048,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>132</v>
@@ -2062,7 +2068,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>133</v>
@@ -2071,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>134</v>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>135</v>
@@ -2094,10 +2100,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2114,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,7 +2183,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>141</v>
@@ -2186,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>142</v>
@@ -2200,16 +2206,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>144</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2712,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2781,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2804,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2965,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3011,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,19 +3264,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3310,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,19 +3402,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3425,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3448,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3471,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,21 +3520,90 @@
         <v>157</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1554,7 +1560,7 @@
         <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>66</v>
@@ -1577,7 +1583,7 @@
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>66</v>
@@ -1600,7 +1606,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>66</v>
@@ -1623,7 +1629,7 @@
         <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>66</v>
@@ -1646,7 +1652,7 @@
         <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>66</v>
@@ -1669,7 +1675,7 @@
         <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>66</v>
@@ -1706,7 +1712,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
@@ -1715,7 +1721,7 @@
         <v>111</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>66</v>
@@ -1769,191 +1775,191 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>121</v>
@@ -1962,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>122</v>
@@ -1971,44 +1977,44 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>128</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>129</v>
@@ -2031,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>130</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>131</v>
@@ -2054,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>132</v>
@@ -2068,7 +2074,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>133</v>
@@ -2077,7 +2083,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>134</v>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>135</v>
@@ -2100,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>136</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>137</v>
@@ -2123,10 +2129,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>143</v>
@@ -2215,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>144</v>
@@ -2229,16 +2235,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>146</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2603,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2626,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2649,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2879,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3040,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3063,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3362,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3431,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3454,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3477,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,19 +3500,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3523,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3589,21 +3595,90 @@
         <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,10 +59,13 @@
     <t>Certificato di cui all’art.39 del Regolamento (CE) n. 2201/2003</t>
   </si>
   <si>
+    <t>Certificato di cui all’art.36 del Regolamento (UE) N. 2019/1111</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
-    <t>192.5</t>
+    <t>192.11</t>
   </si>
   <si>
     <t>193.14</t>
@@ -182,6 +185,9 @@
     <t>siglaProvinciaEnte</t>
   </si>
   <si>
+    <t>192.11,193.14</t>
+  </si>
+  <si>
     <t>Comune ente</t>
   </si>
   <si>
@@ -198,6 +204,24 @@
   </si>
   <si>
     <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Data pubblicazione sentenza</t>
+  </si>
+  <si>
+    <t>dataPubblicazioneSentenza</t>
+  </si>
+  <si>
+    <t>Data decorrenza sentenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenzaSentenza</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -562,14 +586,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.41796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -694,10 +718,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -717,7 +741,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -739,399 +763,399 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
@@ -1140,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -1149,12 +1173,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
@@ -1163,159 +1187,159 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1324,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1333,21 +1357,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1356,12 +1380,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1370,21 +1394,21 @@
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1393,30 +1417,30 @@
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1425,159 +1449,159 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>99</v>
@@ -1586,35 +1610,35 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>102</v>
@@ -1623,21 +1647,21 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>104</v>
@@ -1646,21 +1670,21 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>106</v>
@@ -1669,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>107</v>
@@ -1678,12 +1702,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>108</v>
@@ -1692,21 +1716,21 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>110</v>
@@ -1715,53 +1739,53 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>115</v>
@@ -1770,245 +1794,245 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -2017,96 +2041,96 @@
         <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>136</v>
@@ -2115,12 +2139,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>137</v>
@@ -2129,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>138</v>
@@ -2138,12 +2162,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>139</v>
@@ -2152,237 +2176,237 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>76</v>
@@ -2391,12 +2415,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
@@ -2405,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>78</v>
@@ -2414,21 +2438,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>80</v>
@@ -2437,21 +2461,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>82</v>
@@ -2460,21 +2484,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>84</v>
@@ -2483,21 +2507,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>86</v>
@@ -2506,21 +2530,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>88</v>
@@ -2529,113 +2553,113 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>97</v>
@@ -2644,21 +2668,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>99</v>
@@ -2667,21 +2691,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>101</v>
@@ -2690,12 +2714,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>102</v>
@@ -2704,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>103</v>
@@ -2713,12 +2737,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>104</v>
@@ -2727,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>105</v>
@@ -2736,12 +2760,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>106</v>
@@ -2750,7 +2774,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>107</v>
@@ -2759,12 +2783,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>108</v>
@@ -2773,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>109</v>
@@ -2782,12 +2806,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>110</v>
@@ -2796,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>111</v>
@@ -2805,21 +2829,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>113</v>
@@ -2828,21 +2852,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2851,21 +2875,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>117</v>
@@ -2874,205 +2898,205 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>76</v>
@@ -3081,12 +3105,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>77</v>
@@ -3095,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>78</v>
@@ -3104,21 +3128,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>80</v>
@@ -3127,21 +3151,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>82</v>
@@ -3150,21 +3174,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>84</v>
@@ -3173,21 +3197,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>86</v>
@@ -3196,21 +3220,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>88</v>
@@ -3219,113 +3243,113 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>97</v>
@@ -3334,21 +3358,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>99</v>
@@ -3357,21 +3381,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>101</v>
@@ -3380,12 +3404,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>102</v>
@@ -3394,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>103</v>
@@ -3403,12 +3427,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>104</v>
@@ -3417,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>105</v>
@@ -3426,12 +3450,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>106</v>
@@ -3440,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>107</v>
@@ -3449,12 +3473,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>108</v>
@@ -3463,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>109</v>
@@ -3472,12 +3496,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>110</v>
@@ -3486,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>111</v>
@@ -3495,21 +3519,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>113</v>
@@ -3518,21 +3542,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>115</v>
@@ -3541,21 +3565,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>117</v>
@@ -3564,122 +3588,214 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>23</v>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2380,7 +2386,7 @@
         <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>135</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>161</v>
@@ -3027,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>162</v>
@@ -3041,7 +3047,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>163</v>
@@ -3050,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>164</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>165</v>
@@ -3073,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>166</v>
@@ -3087,19 +3093,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3162,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3208,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3231,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3300,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3323,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3346,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3369,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3392,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3415,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3438,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3461,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3484,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3507,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3530,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3553,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3570,19 +3576,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3593,19 +3599,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3616,19 +3622,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3639,19 +3645,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3662,19 +3668,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3685,19 +3691,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3708,7 +3714,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>161</v>
@@ -3717,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>162</v>
@@ -3731,7 +3737,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>163</v>
@@ -3740,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>164</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>165</v>
@@ -3763,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>166</v>
@@ -3780,21 +3786,44 @@
         <v>169</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -50,10 +50,10 @@
     <t>Sentenza straniera</t>
   </si>
   <si>
+    <t>Dichiarazione di conformità</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>Dichiarazione di conformità</t>
   </si>
   <si>
     <t>Certificato di cui all’art.39 del Regolamento (CE) n. 2201/2003</t>
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -681,10 +681,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -730,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -776,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
@@ -1121,7 +1121,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -1144,7 +1144,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
@@ -1167,7 +1167,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>43</v>
@@ -1190,7 +1190,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
@@ -1213,7 +1213,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1236,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
@@ -1282,7 +1282,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>33</v>
@@ -1305,7 +1305,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>72</v>
@@ -1374,7 +1374,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
@@ -1397,7 +1397,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>72</v>
@@ -1420,7 +1420,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>72</v>
@@ -1489,7 +1489,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>72</v>
@@ -1512,7 +1512,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>72</v>
@@ -1535,7 +1535,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>72</v>
@@ -1558,7 +1558,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>72</v>
@@ -1581,7 +1581,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>72</v>
@@ -1650,7 +1650,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>72</v>
@@ -1673,7 +1673,7 @@
         <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>72</v>
@@ -1696,7 +1696,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>72</v>
@@ -1719,7 +1719,7 @@
         <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>72</v>
@@ -1742,7 +1742,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>72</v>
@@ -1765,7 +1765,7 @@
         <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>72</v>
@@ -1788,7 +1788,7 @@
         <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>72</v>
@@ -1811,7 +1811,7 @@
         <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>72</v>
@@ -1834,7 +1834,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>72</v>
@@ -1995,7 +1995,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>127</v>
@@ -2018,7 +2018,7 @@
         <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>127</v>
@@ -2041,7 +2041,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>127</v>
@@ -2064,7 +2064,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>127</v>
@@ -2087,7 +2087,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>127</v>
@@ -2110,7 +2110,7 @@
         <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>127</v>
@@ -2133,7 +2133,7 @@
         <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>135</v>
@@ -2317,7 +2317,7 @@
         <v>150</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>135</v>
@@ -2340,7 +2340,7 @@
         <v>151</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>135</v>
@@ -2363,7 +2363,7 @@
         <v>153</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>135</v>
@@ -2386,7 +2386,7 @@
         <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>135</v>
@@ -2432,7 +2432,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>160</v>
@@ -2478,7 +2478,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>160</v>
@@ -2593,7 +2593,7 @@
         <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>160</v>
@@ -2616,7 +2616,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>160</v>
@@ -2639,7 +2639,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>160</v>
@@ -2662,7 +2662,7 @@
         <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>160</v>
@@ -2685,7 +2685,7 @@
         <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>160</v>
@@ -2754,7 +2754,7 @@
         <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>160</v>
@@ -2777,7 +2777,7 @@
         <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>160</v>
@@ -2800,7 +2800,7 @@
         <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>160</v>
@@ -2823,7 +2823,7 @@
         <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>160</v>
@@ -2846,7 +2846,7 @@
         <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>160</v>
@@ -2869,7 +2869,7 @@
         <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>160</v>
@@ -2892,7 +2892,7 @@
         <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>160</v>
@@ -2915,7 +2915,7 @@
         <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>160</v>
@@ -2938,7 +2938,7 @@
         <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>160</v>
@@ -3030,7 +3030,7 @@
         <v>161</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>160</v>
@@ -3053,7 +3053,7 @@
         <v>163</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>160</v>
@@ -3076,7 +3076,7 @@
         <v>165</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>160</v>
@@ -3099,7 +3099,7 @@
         <v>167</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>160</v>
@@ -3122,7 +3122,7 @@
         <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>170</v>
@@ -3168,7 +3168,7 @@
         <v>79</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>170</v>
@@ -3283,7 +3283,7 @@
         <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>170</v>
@@ -3306,7 +3306,7 @@
         <v>91</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>170</v>
@@ -3329,7 +3329,7 @@
         <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>170</v>
@@ -3352,7 +3352,7 @@
         <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>170</v>
@@ -3375,7 +3375,7 @@
         <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>170</v>
@@ -3444,7 +3444,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>170</v>
@@ -3467,7 +3467,7 @@
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>170</v>
@@ -3490,7 +3490,7 @@
         <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>170</v>
@@ -3513,7 +3513,7 @@
         <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>170</v>
@@ -3536,7 +3536,7 @@
         <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>170</v>
@@ -3559,7 +3559,7 @@
         <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>170</v>
@@ -3582,7 +3582,7 @@
         <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>170</v>
@@ -3605,7 +3605,7 @@
         <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>170</v>
@@ -3628,7 +3628,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>170</v>
@@ -3720,7 +3720,7 @@
         <v>161</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>170</v>
@@ -3743,7 +3743,7 @@
         <v>163</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>170</v>
@@ -3766,7 +3766,7 @@
         <v>165</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>170</v>
@@ -3789,7 +3789,7 @@
         <v>167</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>170</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,46 +38,40 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Atto di matrimonio</t>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato di cui all’art.39 del Regolamento (CE) n. 2201/2003</t>
+  </si>
+  <si>
+    <t>Certificato di cui all’art.36 o 66 del Regolamento (UE) N. 2019/1111</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.11</t>
+  </si>
+  <si>
+    <t>193.14</t>
+  </si>
+  <si>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
   </si>
   <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>Dichiarazione di conformità</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Certificato di cui all’art.39 del Regolamento (CE) n. 2201/2003</t>
-  </si>
-  <si>
-    <t>Certificato di cui all’art.36 del Regolamento (UE) N. 2019/1111</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.11</t>
-  </si>
-  <si>
-    <t>193.14</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
   </si>
   <si>
     <t>evento</t>
@@ -592,14 +586,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.41796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -684,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -701,13 +695,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -724,13 +718,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -746,3016 +740,3016 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
@@ -3763,68 +3757,22 @@
         <v>169</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -586,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1377,7 +1389,7 @@
         <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>72</v>
@@ -1391,7 +1403,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>70</v>
@@ -1400,7 +1412,7 @@
         <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>72</v>
@@ -1414,7 +1426,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>70</v>
@@ -1423,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>72</v>
@@ -1437,7 +1449,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>70</v>
@@ -1460,7 +1472,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>70</v>
@@ -1469,7 +1481,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>72</v>
@@ -1526,7 +1538,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1535,10 +1547,10 @@
         <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>72</v>
@@ -1549,19 +1561,19 @@
         <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>72</v>
@@ -1572,10 +1584,10 @@
         <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>70</v>
@@ -1584,7 +1596,7 @@
         <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>72</v>
@@ -1598,7 +1610,7 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>70</v>
@@ -1607,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>72</v>
@@ -1621,7 +1633,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>70</v>
@@ -1630,7 +1642,7 @@
         <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>72</v>
@@ -1653,7 +1665,7 @@
         <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>72</v>
@@ -1791,7 +1803,7 @@
         <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>72</v>
@@ -1805,7 +1817,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>70</v>
@@ -1814,7 +1826,7 @@
         <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>72</v>
@@ -1828,7 +1840,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>70</v>
@@ -1837,7 +1849,7 @@
         <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>72</v>
@@ -1868,269 +1880,269 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>138</v>
@@ -2144,7 +2156,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>139</v>
@@ -2153,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>140</v>
@@ -2167,7 +2179,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>141</v>
@@ -2176,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>142</v>
@@ -2190,7 +2202,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>143</v>
@@ -2199,7 +2211,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>144</v>
@@ -2213,7 +2225,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>145</v>
@@ -2222,10 +2234,10 @@
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2294,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2328,7 +2340,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>153</v>
@@ -2337,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>154</v>
@@ -2351,16 +2363,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>156</v>
@@ -2374,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2455,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2547,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2846,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3490,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3536,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3570,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3593,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3616,19 +3628,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3639,19 +3651,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3662,19 +3674,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3685,19 +3697,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3708,19 +3720,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3731,19 +3743,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3754,24 +3766,162 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,6 +131,87 @@
     <t>testoLibero</t>
   </si>
   <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
+  </si>
+  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -429,72 +510,6 @@
   </si>
   <si>
     <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
   </si>
   <si>
     <t>Marito</t>
@@ -598,13 +613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="61.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.41796875" customWidth="true" bestFit="true"/>
@@ -966,7 +981,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
@@ -978,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -986,22 +1001,22 @@
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1009,22 +1024,22 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1032,22 +1047,22 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -1055,22 +1070,22 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -1078,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1087,13 +1102,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -1113,10 +1128,10 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1124,7 +1139,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1133,13 +1148,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1147,7 +1162,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1156,13 +1171,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1185,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1179,13 +1194,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1193,7 +1208,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1202,13 +1217,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1216,1488 +1231,1488 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2769,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2792,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2815,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2838,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2930,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2953,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3022,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3045,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3068,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3091,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3114,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3160,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3229,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3252,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3275,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3298,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3321,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3344,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3367,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3390,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3413,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3436,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3482,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3597,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3620,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3666,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3689,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,19 +3712,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3735,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3758,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3781,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3804,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3812,19 +3827,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,19 +3850,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3873,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3896,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,24 +3919,576 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>22</v>
       </c>
     </row>
